--- a/examples/javascript/WebGL/WebGLEarthTest/WebGLEarthTest/Design/Cities.xlsx
+++ b/examples/javascript/WebGL/WebGLEarthTest/WebGLEarthTest/Design/Cities.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
   <sheets>
-    <sheet name="City" sheetId="1" r:id="rId1"/>
+    <sheet name="CityTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2007,7 +2007,7 @@
   <dimension ref="A1:C538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
